--- a/work_with_prepared_data/datas/p_25.2_n_7.2_2023.xlsx
+++ b/work_with_prepared_data/datas/p_25.2_n_7.2_2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Kizilova\Крысы сканы\N+P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\neuro_stats\work_with_prepared_data\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -161,79 +161,79 @@
     <t>1,6 - 1,7 - 1,1</t>
   </si>
   <si>
+    <t>1,6 - 1,7 - 1,0</t>
+  </si>
+  <si>
+    <t>2,0 - 1,9 - 1,2</t>
+  </si>
+  <si>
+    <t>1,0 - 1,0 - 0,6</t>
+  </si>
+  <si>
+    <t>1,6 - 1,4 - 1,0</t>
+  </si>
+  <si>
+    <t>1,5 - 1,4 - 0,9</t>
+  </si>
+  <si>
+    <t>1,5 -1,6 - 1,0</t>
+  </si>
+  <si>
+    <t>1,9 - 1,7 - 1,0</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>1,5 - 1,6 - 0,9</t>
+  </si>
+  <si>
+    <t>1,4 - 1,3 - 0,9</t>
+  </si>
+  <si>
+    <t>1,6 - 1,7 - 0,9</t>
+  </si>
+  <si>
+    <t>1,4 - 1,2 - 0,9</t>
+  </si>
+  <si>
+    <t>1,7 - 1,9 - 1,2</t>
+  </si>
+  <si>
+    <t>2,2 - 2,1 - 1,4</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,0 - 1,8 - 1,2</t>
+  </si>
+  <si>
+    <t>2,1 - 2,0 - 1,3</t>
+  </si>
+  <si>
+    <t>1,6 - 1,4 - 1,2</t>
+  </si>
+  <si>
+    <t>1,9 - 2,0 - 1,3</t>
+  </si>
+  <si>
+    <t>2,4 - 2,2 - 1,6</t>
+  </si>
+  <si>
+    <t>2,1 - 2,3 - 1,3</t>
+  </si>
+  <si>
+    <t>1,3 - 1,3 -1,0</t>
+  </si>
+  <si>
+    <t>2,6 - 2,3 - 1,6</t>
+  </si>
+  <si>
     <t>1,3 - 1,4 - 0,8</t>
   </si>
   <si>
-    <t>1,6 - 1,7 - 1,0</t>
-  </si>
-  <si>
-    <t>2,0 - 1,9 - 1,2</t>
-  </si>
-  <si>
-    <t>1,0 - 1,0 - 0,6</t>
-  </si>
-  <si>
-    <t>1,6 - 1,4 - 1,0</t>
-  </si>
-  <si>
-    <t>1,5 - 1,4 - 0,9</t>
-  </si>
-  <si>
-    <t>1,5 -1,6 - 1,0</t>
-  </si>
-  <si>
-    <t>1,9 - 1,7 - 1,0</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>1,5 - 1,6 - 0,9</t>
-  </si>
-  <si>
-    <t>1,4 - 1,3 - 0,9</t>
-  </si>
-  <si>
-    <t>1,7 - 1,7 - 1,9</t>
-  </si>
-  <si>
-    <t>1,6 - 1,7 - 0,9</t>
-  </si>
-  <si>
-    <t>1,4 - 1,2 - 0,9</t>
-  </si>
-  <si>
-    <t>1,7 - 1,9 - 1,2</t>
-  </si>
-  <si>
-    <t>2,2 - 2,1 - 1,4</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2,0 - 1,8 - 1,2</t>
-  </si>
-  <si>
-    <t>2,1 - 2,0 - 1,3</t>
-  </si>
-  <si>
-    <t>1,6 - 1,4 - 1,2</t>
-  </si>
-  <si>
-    <t>1,9 - 2,0 - 1,3</t>
-  </si>
-  <si>
-    <t>2,4 - 2,2 - 1,6</t>
-  </si>
-  <si>
-    <t>2,1 - 2,3 - 1,3</t>
-  </si>
-  <si>
-    <t>1,3 - 1,3 -1,0</t>
-  </si>
-  <si>
-    <t>2,6 - 2,3 - 1,6</t>
+    <t>1,7 - 1,7 - 1,1</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,22 +661,22 @@
         <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -752,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -775,25 +775,25 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -816,22 +816,22 @@
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -851,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
@@ -863,13 +863,13 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
